--- a/biology/Écologie/Liste_des_écorégions_du_Cameroun/Liste_des_écorégions_du_Cameroun.xlsx
+++ b/biology/Écologie/Liste_des_écorégions_du_Cameroun/Liste_des_écorégions_du_Cameroun.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Liste_des_%C3%A9cor%C3%A9gions_du_Cameroun</t>
+          <t>Liste_des_écorégions_du_Cameroun</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Voici une liste des écorégions du Cameroun, selon le Fonds mondial pour la nature (WWF).
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Liste_des_%C3%A9cor%C3%A9gions_du_Cameroun</t>
+          <t>Liste_des_écorégions_du_Cameroun</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,90 +523,301 @@
           <t>Écorégions terrestres</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>par type d'habitat majeur
-Forêts de feuillus humides tropicales et subtropicales
-Forêts équatoriales côtières de l'Atlantique
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">par type d'habitat majeur
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Liste_des_écorégions_du_Cameroun</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Écologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_%C3%A9cor%C3%A9gions_du_Cameroun</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Écorégions terrestres</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Forêts de feuillus humides tropicales et subtropicales</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Forêts équatoriales côtières de l'Atlantique
 Forêts des hauts plateaux camerounais
 Forêts côtières Cross–Sanaga–Bioko
 Forêts montagnardes du Mont Cameroun et du Bioko
-Forêts des basses terres congolaises du nord-ouest
-Forêts feuillues sèches tropicales et subtropicales
-Prairies tropicales et subtropicales, savanes et arbustes
-Savane soudanienne orientale
+Forêts des basses terres congolaises du nord-ouest</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Liste_des_écorégions_du_Cameroun</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Écologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_%C3%A9cor%C3%A9gions_du_Cameroun</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Écorégions terrestres</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Prairies tropicales et subtropicales, savanes et arbustes</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Savane soudanienne orientale
 Mosaïque forêt-savane guinéenne
 Mosaïque du plateau de Mandara
 Mosaïque forêt-savane du nord du Congo
-Savane sahélienne à Acacia
-Mangroves
-Mangroves d'Afrique centrale</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Liste_des_%C3%A9cor%C3%A9gions_du_Cameroun</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Portail:Écologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Liste_des_%C3%A9cor%C3%A9gions_du_Cameroun</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
+Savane sahélienne à Acacia</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Liste_des_écorégions_du_Cameroun</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Écologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_%C3%A9cor%C3%A9gions_du_Cameroun</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Écorégions terrestres</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Mangroves</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Mangroves d'Afrique centrale</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Liste_des_écorégions_du_Cameroun</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Écologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_%C3%A9cor%C3%A9gions_du_Cameroun</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
         <is>
           <t>Écorégions d'eau douce</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>par biorégion
-Nilo-Sudan
-Bassin versant du lac Tchad
-Équatorial côtier ouest
-Équatorial côtier du centre-ouest
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">par biorégion
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Liste_des_écorégions_du_Cameroun</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Écologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_%C3%A9cor%C3%A9gions_du_Cameroun</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Écorégions d'eau douce</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Nilo-Sudan</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Bassin versant du lac Tchad</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Liste_des_écorégions_du_Cameroun</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Écologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_%C3%A9cor%C3%A9gions_du_Cameroun</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Écorégions d'eau douce</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Équatorial côtier ouest</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Équatorial côtier du centre-ouest
 Côte équatoriale nord-ouest
-Lacs de cratère équatorial occidental
-Congo
-Sangha</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Liste_des_%C3%A9cor%C3%A9gions_du_Cameroun</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Portail:Écologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Liste_des_%C3%A9cor%C3%A9gions_du_Cameroun</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
+Lacs de cratère équatorial occidental</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Liste_des_écorégions_du_Cameroun</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Écologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_%C3%A9cor%C3%A9gions_du_Cameroun</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Écorégions d'eau douce</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Congo</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Sangha</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Liste_des_écorégions_du_Cameroun</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Écologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_%C3%A9cor%C3%A9gions_du_Cameroun</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
         <is>
           <t>Écorégions marines</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
         <is>
           <t>Golfe de Guinée Central</t>
         </is>
